--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H2">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I2">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J2">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>4.237840333333334</v>
+        <v>0.027767</v>
       </c>
       <c r="N2">
-        <v>12.713521</v>
+        <v>0.083301</v>
       </c>
       <c r="O2">
-        <v>0.4475167411500002</v>
+        <v>0.002923627791763407</v>
       </c>
       <c r="P2">
-        <v>0.4475167411500002</v>
+        <v>0.002923627791763407</v>
       </c>
       <c r="Q2">
-        <v>114.5865650033952</v>
+        <v>0.173269078836</v>
       </c>
       <c r="R2">
-        <v>1031.279085030557</v>
+        <v>1.559421709524</v>
       </c>
       <c r="S2">
-        <v>0.03175663026368997</v>
+        <v>5.064397300360597E-05</v>
       </c>
       <c r="T2">
-        <v>0.03175663026368998</v>
+        <v>5.064397300360598E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H3">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I3">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J3">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.231839666666666</v>
+        <v>4.237840333333334</v>
       </c>
       <c r="N3">
-        <v>15.695519</v>
+        <v>12.713521</v>
       </c>
       <c r="O3">
-        <v>0.5524832588499997</v>
+        <v>0.4462083687682946</v>
       </c>
       <c r="P3">
-        <v>0.5524832588499998</v>
+        <v>0.4462083687682946</v>
       </c>
       <c r="Q3">
-        <v>141.4632192101247</v>
+        <v>26.444581366756</v>
       </c>
       <c r="R3">
-        <v>1273.168972891123</v>
+        <v>238.001232300804</v>
       </c>
       <c r="S3">
-        <v>0.0392052519266473</v>
+        <v>0.007729357562391539</v>
       </c>
       <c r="T3">
-        <v>0.03920525192664731</v>
+        <v>0.00772935756239154</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>345.566579</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H4">
-        <v>1036.699737</v>
+        <v>18.720324</v>
       </c>
       <c r="I4">
-        <v>0.9069174311350353</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J4">
-        <v>0.9069174311350354</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.237840333333334</v>
+        <v>5.231839666666667</v>
       </c>
       <c r="N4">
-        <v>12.713521</v>
+        <v>15.695519</v>
       </c>
       <c r="O4">
-        <v>0.4475167411500002</v>
+        <v>0.5508680034399419</v>
       </c>
       <c r="P4">
-        <v>0.4475167411500002</v>
+        <v>0.5508680034399419</v>
       </c>
       <c r="Q4">
-        <v>1464.45598633822</v>
+        <v>32.64724455868399</v>
       </c>
       <c r="R4">
-        <v>13180.10387704398</v>
+        <v>293.825201028156</v>
       </c>
       <c r="S4">
-        <v>0.4058607332736807</v>
+        <v>0.009542303699998613</v>
       </c>
       <c r="T4">
-        <v>0.4058607332736808</v>
+        <v>0.009542303699998615</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J5">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.231839666666666</v>
+        <v>0.027767</v>
       </c>
       <c r="N5">
-        <v>15.695519</v>
+        <v>0.083301</v>
       </c>
       <c r="O5">
-        <v>0.5524832588499997</v>
+        <v>0.002923627791763407</v>
       </c>
       <c r="P5">
-        <v>0.5524832588499998</v>
+        <v>0.002923627791763407</v>
       </c>
       <c r="Q5">
-        <v>1807.9489354865</v>
+        <v>9.595347199093</v>
       </c>
       <c r="R5">
-        <v>16271.5404193785</v>
+        <v>86.358124791837</v>
       </c>
       <c r="S5">
-        <v>0.5010566978613545</v>
+        <v>0.002804577180046318</v>
       </c>
       <c r="T5">
-        <v>0.5010566978613546</v>
+        <v>0.002804577180046319</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.428738666666668</v>
+        <v>345.566579</v>
       </c>
       <c r="H6">
-        <v>25.286216</v>
+        <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.0221206866746274</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J6">
-        <v>0.02212068667462741</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>12.713521</v>
       </c>
       <c r="O6">
-        <v>0.4475167411500002</v>
+        <v>0.4462083687682946</v>
       </c>
       <c r="P6">
-        <v>0.4475167411500002</v>
+        <v>0.4462083687682946</v>
       </c>
       <c r="Q6">
-        <v>35.71964868072623</v>
+        <v>1464.45598633822</v>
       </c>
       <c r="R6">
-        <v>321.4768381265361</v>
+        <v>13180.10387704398</v>
       </c>
       <c r="S6">
-        <v>0.009899377612629488</v>
+        <v>0.4280386895072046</v>
       </c>
       <c r="T6">
-        <v>0.009899377612629491</v>
+        <v>0.4280386895072046</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.428738666666668</v>
+        <v>345.566579</v>
       </c>
       <c r="H7">
-        <v>25.286216</v>
+        <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.0221206866746274</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J7">
-        <v>0.02212068667462741</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.231839666666666</v>
+        <v>5.231839666666667</v>
       </c>
       <c r="N7">
         <v>15.695519</v>
       </c>
       <c r="O7">
-        <v>0.5524832588499997</v>
+        <v>0.5508680034399419</v>
       </c>
       <c r="P7">
-        <v>0.5524832588499998</v>
+        <v>0.5508680034399419</v>
       </c>
       <c r="Q7">
+        <v>1807.9489354865</v>
+      </c>
+      <c r="R7">
+        <v>16271.5404193785</v>
+      </c>
+      <c r="S7">
+        <v>0.528436566384358</v>
+      </c>
+      <c r="T7">
+        <v>0.5284365663843581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>8.428738666666666</v>
+      </c>
+      <c r="H8">
+        <v>25.286216</v>
+      </c>
+      <c r="I8">
+        <v>0.02339786169299727</v>
+      </c>
+      <c r="J8">
+        <v>0.02339786169299728</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.027767</v>
+      </c>
+      <c r="N8">
+        <v>0.083301</v>
+      </c>
+      <c r="O8">
+        <v>0.002923627791763407</v>
+      </c>
+      <c r="P8">
+        <v>0.002923627791763407</v>
+      </c>
+      <c r="Q8">
+        <v>0.2340407865573333</v>
+      </c>
+      <c r="R8">
+        <v>2.106367079016</v>
+      </c>
+      <c r="S8">
+        <v>6.840663871348322E-05</v>
+      </c>
+      <c r="T8">
+        <v>6.840663871348325E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8.428738666666666</v>
+      </c>
+      <c r="H9">
+        <v>25.286216</v>
+      </c>
+      <c r="I9">
+        <v>0.02339786169299727</v>
+      </c>
+      <c r="J9">
+        <v>0.02339786169299728</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.237840333333334</v>
+      </c>
+      <c r="N9">
+        <v>12.713521</v>
+      </c>
+      <c r="O9">
+        <v>0.4462083687682946</v>
+      </c>
+      <c r="P9">
+        <v>0.4462083687682946</v>
+      </c>
+      <c r="Q9">
+        <v>35.71964868072622</v>
+      </c>
+      <c r="R9">
+        <v>321.476838126536</v>
+      </c>
+      <c r="S9">
+        <v>0.01044032169869848</v>
+      </c>
+      <c r="T9">
+        <v>0.01044032169869848</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>8.428738666666666</v>
+      </c>
+      <c r="H10">
+        <v>25.286216</v>
+      </c>
+      <c r="I10">
+        <v>0.02339786169299727</v>
+      </c>
+      <c r="J10">
+        <v>0.02339786169299728</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.231839666666667</v>
+      </c>
+      <c r="N10">
+        <v>15.695519</v>
+      </c>
+      <c r="O10">
+        <v>0.5508680034399419</v>
+      </c>
+      <c r="P10">
+        <v>0.5508680034399419</v>
+      </c>
+      <c r="Q10">
         <v>44.09780929623378</v>
       </c>
-      <c r="R7">
+      <c r="R10">
         <v>396.880283666104</v>
       </c>
-      <c r="S7">
-        <v>0.01222130906199791</v>
-      </c>
-      <c r="T7">
-        <v>0.01222130906199792</v>
+      <c r="S10">
+        <v>0.0128891333555853</v>
+      </c>
+      <c r="T10">
+        <v>0.01288913335558531</v>
       </c>
     </row>
   </sheetData>
